--- a/data/multipleSimData/res.xlsx
+++ b/data/multipleSimData/res.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2950" windowWidth="17280" windowHeight="8960"/>
+    <workbookView xWindow="1620" yWindow="2950" windowWidth="17280" windowHeight="8960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pairwise-.1T" sheetId="4" r:id="rId1"/>
     <sheet name="Pairwise-.2T" sheetId="5" r:id="rId2"/>
     <sheet name="Pairwise-.3T" sheetId="6" r:id="rId3"/>
     <sheet name="Pairwise-.4T" sheetId="1" r:id="rId4"/>
-    <sheet name="Mutiple.T4" sheetId="3" r:id="rId5"/>
+    <sheet name="PairwiseAverage" sheetId="7" r:id="rId5"/>
+    <sheet name="Mutiple.T4" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="29">
   <si>
     <t>case</t>
   </si>
@@ -85,9 +86,6 @@
     <t>f</t>
   </si>
   <si>
-    <t>Granger R</t>
-  </si>
-  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -98,6 +96,21 @@
   </si>
   <si>
     <t>Delta=0.2T</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Group NORMAL</t>
+  </si>
+  <si>
+    <t>Group ARMA</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -139,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -147,6 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,9 +441,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.95</v>
+      </c>
+      <c r="F2">
+        <v>0.8</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.72</v>
+      </c>
+      <c r="I2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.93</v>
+      </c>
+      <c r="E3">
+        <v>0.45</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.53</v>
+      </c>
+      <c r="I3">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.96</v>
+      </c>
+      <c r="C4">
+        <v>0.96</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.97</v>
+      </c>
+      <c r="F4">
+        <v>0.76</v>
+      </c>
+      <c r="G4">
+        <v>0.99</v>
+      </c>
+      <c r="H4">
+        <v>0.84</v>
+      </c>
+      <c r="I4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.97</v>
+      </c>
+      <c r="D5">
+        <v>0.76</v>
+      </c>
+      <c r="E5">
+        <v>0.44</v>
+      </c>
+      <c r="F5">
+        <v>0.32</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.94</v>
+      </c>
+      <c r="E6">
+        <v>0.67</v>
+      </c>
+      <c r="F6">
+        <v>0.47</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.49</v>
+      </c>
+      <c r="I6">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.72</v>
+      </c>
+      <c r="D10">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.62</v>
+      </c>
+      <c r="D11">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.99</v>
+      </c>
+      <c r="C12">
+        <v>0.84</v>
+      </c>
+      <c r="D12">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.48</v>
+      </c>
+      <c r="D13">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.43</v>
+      </c>
+      <c r="D14">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B2:B6)</f>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="C18:I18" si="0">AVERAGE(D2:D6)</f>
+        <v>0.92600000000000016</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.998</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -485,13 +832,19 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.95</v>
+        <v>0.43</v>
       </c>
       <c r="F2">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.72</v>
+      </c>
+      <c r="I2">
+        <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -508,13 +861,19 @@
         <v>0.93</v>
       </c>
       <c r="E3">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="F3">
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.53</v>
+      </c>
+      <c r="I3">
+        <v>0.68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -531,13 +890,19 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.97</v>
+        <v>0.54</v>
       </c>
       <c r="F4">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="G4">
         <v>0.99</v>
+      </c>
+      <c r="H4">
+        <v>0.84</v>
+      </c>
+      <c r="I4">
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -545,22 +910,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C5">
         <v>0.97</v>
       </c>
       <c r="D5">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F5">
         <v>0.32</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.74</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -568,27 +939,33 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D6">
         <v>0.94</v>
       </c>
       <c r="E6">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="F6">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.51</v>
+      </c>
+      <c r="I6">
+        <v>0.74</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -677,13 +1054,50 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B2:B6)</f>
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:I18" si="0">AVERAGE(C2:C6)</f>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.998</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.61999999999999988</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.80200000000000016</v>
       </c>
     </row>
   </sheetData>
@@ -691,12 +1105,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -751,13 +1165,19 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.43</v>
+        <v>0.82</v>
       </c>
       <c r="F2">
-        <v>0.67</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.72</v>
+      </c>
+      <c r="I2">
+        <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -765,22 +1185,28 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D3">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E3">
+        <v>0.73</v>
+      </c>
+      <c r="F3">
+        <v>0.4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.53</v>
+      </c>
+      <c r="I3">
         <v>0.68</v>
-      </c>
-      <c r="F3">
-        <v>0.34</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -797,13 +1223,19 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="F4">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="G4">
         <v>0.99</v>
+      </c>
+      <c r="H4">
+        <v>0.84</v>
+      </c>
+      <c r="I4">
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -811,22 +1243,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="C5">
         <v>0.97</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="E5">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="F5">
         <v>0.32</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.76</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -834,27 +1272,33 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0.94</v>
       </c>
       <c r="E6">
-        <v>0.69</v>
+        <v>0.77</v>
       </c>
       <c r="F6">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.49</v>
+      </c>
+      <c r="I6">
+        <v>0.76</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -943,13 +1387,50 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B2:B6)</f>
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:I18" si="0">AVERAGE(C2:C6)</f>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.998</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.80999999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -957,12 +1438,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1017,13 +1498,19 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="F2">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.72</v>
+      </c>
+      <c r="I2">
+        <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1031,22 +1518,28 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="C3">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="D3">
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="E3">
-        <v>0.73</v>
+        <v>0.81</v>
       </c>
       <c r="F3">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.97</v>
+      </c>
+      <c r="H3">
+        <v>0.47</v>
+      </c>
+      <c r="I3">
+        <v>0.71</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1054,22 +1547,28 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="F4">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="G4">
         <v>0.99</v>
+      </c>
+      <c r="H4">
+        <v>0.84</v>
+      </c>
+      <c r="I4">
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1077,22 +1576,28 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.98</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C5">
+        <v>0.23</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+      <c r="E5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.24</v>
+      </c>
+      <c r="G5">
         <v>0.97</v>
       </c>
-      <c r="D5">
-        <v>0.59</v>
-      </c>
-      <c r="E5">
-        <v>0.54</v>
-      </c>
-      <c r="F5">
-        <v>0.32</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.76</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1100,27 +1605,33 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="D6">
-        <v>0.94</v>
+        <v>0.83</v>
       </c>
       <c r="E6">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="F6">
-        <v>0.63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.97</v>
+      </c>
+      <c r="H6">
+        <v>0.49</v>
+      </c>
+      <c r="I6">
+        <v>0.76</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1209,13 +1720,50 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B2:B6)</f>
+        <v>0.80199999999999994</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:I18" si="0">AVERAGE(C2:C6)</f>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.82999999999999985</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.97999999999999987</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.60399999999999987</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.81600000000000006</v>
       </c>
     </row>
   </sheetData>
@@ -1223,12 +1771,345 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <f>AVERAGE('Pairwise-.1T'!B2,'Pairwise-.2T'!B2,'Pairwise-.3T'!B2,'Pairwise-.4T'!B2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <f>AVERAGE('Pairwise-.1T'!C2,'Pairwise-.2T'!C2,'Pairwise-.3T'!C2,'Pairwise-.4T'!C2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f>AVERAGE('Pairwise-.1T'!D2,'Pairwise-.2T'!D2,'Pairwise-.3T'!D2,'Pairwise-.4T'!D2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <f>AVERAGE('Pairwise-.1T'!E2,'Pairwise-.2T'!E2,'Pairwise-.3T'!E2,'Pairwise-.4T'!E2)</f>
+        <v>0.78749999999999987</v>
+      </c>
+      <c r="F2" s="3">
+        <f>AVERAGE('Pairwise-.1T'!F2,'Pairwise-.2T'!F2,'Pairwise-.3T'!F2,'Pairwise-.4T'!F2)</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="G2" s="3">
+        <f>AVERAGE('Pairwise-.1T'!G2,'Pairwise-.2T'!G2,'Pairwise-.3T'!G2,'Pairwise-.4T'!G2)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <f>AVERAGE('Pairwise-.1T'!H2,'Pairwise-.2T'!H2,'Pairwise-.3T'!H2,'Pairwise-.4T'!H2)</f>
+        <v>0.72</v>
+      </c>
+      <c r="I2" s="3">
+        <f>AVERAGE('Pairwise-.1T'!I2,'Pairwise-.2T'!I2,'Pairwise-.3T'!I2,'Pairwise-.4T'!I2)</f>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <f>AVERAGE('Pairwise-.1T'!B3,'Pairwise-.2T'!B3,'Pairwise-.3T'!B3,'Pairwise-.4T'!B3)</f>
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="C3" s="3">
+        <f>AVERAGE('Pairwise-.1T'!C3,'Pairwise-.2T'!C3,'Pairwise-.3T'!C3,'Pairwise-.4T'!C3)</f>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="D3" s="3">
+        <f>AVERAGE('Pairwise-.1T'!D3,'Pairwise-.2T'!D3,'Pairwise-.3T'!D3,'Pairwise-.4T'!D3)</f>
+        <v>0.875</v>
+      </c>
+      <c r="E3" s="3">
+        <f>AVERAGE('Pairwise-.1T'!E3,'Pairwise-.2T'!E3,'Pairwise-.3T'!E3,'Pairwise-.4T'!E3)</f>
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="F3" s="3">
+        <f>AVERAGE('Pairwise-.1T'!F3,'Pairwise-.2T'!F3,'Pairwise-.3T'!F3,'Pairwise-.4T'!F3)</f>
+        <v>0.34</v>
+      </c>
+      <c r="G3" s="3">
+        <f>AVERAGE('Pairwise-.1T'!G3,'Pairwise-.2T'!G3,'Pairwise-.3T'!G3,'Pairwise-.4T'!G3)</f>
+        <v>0.99249999999999994</v>
+      </c>
+      <c r="H3" s="3">
+        <f>AVERAGE('Pairwise-.1T'!H3,'Pairwise-.2T'!H3,'Pairwise-.3T'!H3,'Pairwise-.4T'!H3)</f>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="I3" s="3">
+        <f>AVERAGE('Pairwise-.1T'!I3,'Pairwise-.2T'!I3,'Pairwise-.3T'!I3,'Pairwise-.4T'!I3)</f>
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <f>AVERAGE('Pairwise-.1T'!B4,'Pairwise-.2T'!B4,'Pairwise-.3T'!B4,'Pairwise-.4T'!B4)</f>
+        <v>0.97</v>
+      </c>
+      <c r="C4" s="3">
+        <f>AVERAGE('Pairwise-.1T'!C4,'Pairwise-.2T'!C4,'Pairwise-.3T'!C4,'Pairwise-.4T'!C4)</f>
+        <v>0.97</v>
+      </c>
+      <c r="D4" s="3">
+        <f>AVERAGE('Pairwise-.1T'!D4,'Pairwise-.2T'!D4,'Pairwise-.3T'!D4,'Pairwise-.4T'!D4)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <f>AVERAGE('Pairwise-.1T'!E4,'Pairwise-.2T'!E4,'Pairwise-.3T'!E4,'Pairwise-.4T'!E4)</f>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="F4" s="3">
+        <f>AVERAGE('Pairwise-.1T'!F4,'Pairwise-.2T'!F4,'Pairwise-.3T'!F4,'Pairwise-.4T'!F4)</f>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="G4" s="3">
+        <f>AVERAGE('Pairwise-.1T'!G4,'Pairwise-.2T'!G4,'Pairwise-.3T'!G4,'Pairwise-.4T'!G4)</f>
+        <v>0.99</v>
+      </c>
+      <c r="H4" s="3">
+        <f>AVERAGE('Pairwise-.1T'!H4,'Pairwise-.2T'!H4,'Pairwise-.3T'!H4,'Pairwise-.4T'!H4)</f>
+        <v>0.84</v>
+      </c>
+      <c r="I4" s="3">
+        <f>AVERAGE('Pairwise-.1T'!I4,'Pairwise-.2T'!I4,'Pairwise-.3T'!I4,'Pairwise-.4T'!I4)</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <f>AVERAGE('Pairwise-.1T'!B5,'Pairwise-.2T'!B5,'Pairwise-.3T'!B5,'Pairwise-.4T'!B5)</f>
+        <v>0.8125</v>
+      </c>
+      <c r="C5" s="3">
+        <f>AVERAGE('Pairwise-.1T'!C5,'Pairwise-.2T'!C5,'Pairwise-.3T'!C5,'Pairwise-.4T'!C5)</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D5" s="3">
+        <f>AVERAGE('Pairwise-.1T'!D5,'Pairwise-.2T'!D5,'Pairwise-.3T'!D5,'Pairwise-.4T'!D5)</f>
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="E5" s="3">
+        <f>AVERAGE('Pairwise-.1T'!E5,'Pairwise-.2T'!E5,'Pairwise-.3T'!E5,'Pairwise-.4T'!E5)</f>
+        <v>0.49750000000000005</v>
+      </c>
+      <c r="F5" s="3">
+        <f>AVERAGE('Pairwise-.1T'!F5,'Pairwise-.2T'!F5,'Pairwise-.3T'!F5,'Pairwise-.4T'!F5)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="3">
+        <f>AVERAGE('Pairwise-.1T'!G5,'Pairwise-.2T'!G5,'Pairwise-.3T'!G5,'Pairwise-.4T'!G5)</f>
+        <v>0.99249999999999994</v>
+      </c>
+      <c r="H5" s="3">
+        <f>AVERAGE('Pairwise-.1T'!H5,'Pairwise-.2T'!H5,'Pairwise-.3T'!H5,'Pairwise-.4T'!H5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="3">
+        <f>AVERAGE('Pairwise-.1T'!I5,'Pairwise-.2T'!I5,'Pairwise-.3T'!I5,'Pairwise-.4T'!I5)</f>
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <f>AVERAGE('Pairwise-.1T'!B6,'Pairwise-.2T'!B6,'Pairwise-.3T'!B6,'Pairwise-.4T'!B6)</f>
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="C6" s="3">
+        <f>AVERAGE('Pairwise-.1T'!C6,'Pairwise-.2T'!C6,'Pairwise-.3T'!C6,'Pairwise-.4T'!C6)</f>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D6" s="3">
+        <f>AVERAGE('Pairwise-.1T'!D6,'Pairwise-.2T'!D6,'Pairwise-.3T'!D6,'Pairwise-.4T'!D6)</f>
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="E6" s="3">
+        <f>AVERAGE('Pairwise-.1T'!E6,'Pairwise-.2T'!E6,'Pairwise-.3T'!E6,'Pairwise-.4T'!E6)</f>
+        <v>0.745</v>
+      </c>
+      <c r="F6" s="3">
+        <f>AVERAGE('Pairwise-.1T'!F6,'Pairwise-.2T'!F6,'Pairwise-.3T'!F6,'Pairwise-.4T'!F6)</f>
+        <v>0.56749999999999989</v>
+      </c>
+      <c r="G6" s="3">
+        <f>AVERAGE('Pairwise-.1T'!G6,'Pairwise-.2T'!G6,'Pairwise-.3T'!G6,'Pairwise-.4T'!G6)</f>
+        <v>0.99249999999999994</v>
+      </c>
+      <c r="H6" s="3">
+        <f>AVERAGE('Pairwise-.1T'!H6,'Pairwise-.2T'!H6,'Pairwise-.3T'!H6,'Pairwise-.4T'!H6)</f>
+        <v>0.495</v>
+      </c>
+      <c r="I6" s="3">
+        <f>AVERAGE('Pairwise-.1T'!I6,'Pairwise-.2T'!I6,'Pairwise-.3T'!I6,'Pairwise-.4T'!I6)</f>
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.72</v>
+      </c>
+      <c r="D10">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.62</v>
+      </c>
+      <c r="D11">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.99</v>
+      </c>
+      <c r="C12">
+        <v>0.84</v>
+      </c>
+      <c r="D12">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.48</v>
+      </c>
+      <c r="D13">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.43</v>
+      </c>
+      <c r="D14">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,307 +2117,11 @@
     <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0.95</v>
-      </c>
-      <c r="F2">
-        <v>0.53</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.72</v>
-      </c>
-      <c r="I2">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.86</v>
-      </c>
-      <c r="C3">
-        <v>0.85</v>
-      </c>
-      <c r="D3">
-        <v>0.72</v>
-      </c>
-      <c r="E3">
-        <v>0.81</v>
-      </c>
-      <c r="F3">
-        <v>0.42</v>
-      </c>
-      <c r="G3">
-        <v>0.97</v>
-      </c>
-      <c r="H3">
-        <v>0.47</v>
-      </c>
-      <c r="I3">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.93</v>
-      </c>
-      <c r="F4">
-        <v>0.7</v>
-      </c>
-      <c r="G4">
-        <v>0.99</v>
-      </c>
-      <c r="H4">
-        <v>0.84</v>
-      </c>
-      <c r="I4">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C5">
-        <v>0.23</v>
-      </c>
-      <c r="D5">
-        <v>0.6</v>
-      </c>
-      <c r="E5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F5">
-        <v>0.24</v>
-      </c>
-      <c r="G5">
-        <v>0.97</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.87</v>
-      </c>
-      <c r="C6">
-        <v>0.84</v>
-      </c>
-      <c r="D6">
-        <v>0.83</v>
-      </c>
-      <c r="E6">
-        <v>0.85</v>
-      </c>
-      <c r="F6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G6">
-        <v>0.97</v>
-      </c>
-      <c r="H6">
-        <v>0.49</v>
-      </c>
-      <c r="I6">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.72</v>
-      </c>
-      <c r="D10">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0.62</v>
-      </c>
-      <c r="D11">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>0.99</v>
-      </c>
-      <c r="C12">
-        <v>0.84</v>
-      </c>
-      <c r="D12">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0.48</v>
-      </c>
-      <c r="D13">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0.43</v>
-      </c>
-      <c r="D14">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
@@ -1547,8 +2132,14 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1570,8 +2161,14 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1594,7 +2191,7 @@
         <v>0.75879802887146097</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1617,7 +2214,7 @@
         <v>0.75791523441513498</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +2237,7 @@
         <v>0.15044994002018899</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +2260,7 @@
         <v>0.48487509563895598</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1686,47 +2283,60 @@
         <v>0.26771929824561402</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.94855199999999995</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.88583299999999998</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.91103699999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.85853400000000002</v>
-      </c>
-      <c r="F8">
-        <v>0.9375</v>
-      </c>
-      <c r="G8">
-        <v>0.89032599999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.94855199999999995</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.88583299999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.91103699999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.85853400000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.9375</v>
+      </c>
+      <c r="G13">
+        <v>0.89032599999999995</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/multipleSimData/res.xlsx
+++ b/data/multipleSimData/res.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEDDA8B-D4D8-40CB-9082-63BD91B132B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2950" windowWidth="17280" windowHeight="8960" activeTab="3"/>
+    <workbookView xWindow="1620" yWindow="2952" windowWidth="20676" windowHeight="8964" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pairwise-.1T" sheetId="4" r:id="rId1"/>
@@ -12,19 +13,28 @@
     <sheet name="Pairwise-.3T" sheetId="6" r:id="rId3"/>
     <sheet name="Pairwise-.4T" sheetId="1" r:id="rId4"/>
     <sheet name="PairwiseAverage" sheetId="7" r:id="rId5"/>
-    <sheet name="Mutiple.T4" sheetId="3" r:id="rId6"/>
+    <sheet name="Mutiple.T1" sheetId="10" r:id="rId6"/>
+    <sheet name="Mutiple.T2" sheetId="9" r:id="rId7"/>
+    <sheet name="Mutiple.T3" sheetId="8" r:id="rId8"/>
+    <sheet name="Mutiple.T4" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="29">
   <si>
     <t>case</t>
   </si>
@@ -116,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,10 +167,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,23 +450,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -514,7 +524,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -543,7 +553,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -572,7 +582,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -601,7 +611,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -630,12 +640,12 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -649,7 +659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -663,7 +673,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -677,7 +687,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -691,7 +701,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -705,7 +715,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -719,7 +729,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -730,7 +740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -743,7 +753,7 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="C18:I18" si="0">AVERAGE(D2:D6)</f>
+        <f t="shared" ref="D18:I18" si="0">AVERAGE(D2:D6)</f>
         <v>0.92600000000000016</v>
       </c>
       <c r="E18">
@@ -773,23 +783,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -847,7 +857,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -876,7 +886,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -905,7 +915,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -934,7 +944,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -963,12 +973,12 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -982,7 +992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -996,7 +1006,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1024,7 +1034,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1038,7 +1048,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1063,7 +1073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1106,23 +1116,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1190,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +1219,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1248,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1277,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1296,12 +1306,12 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1339,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1353,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1357,7 +1367,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1371,7 +1381,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1385,7 +1395,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1396,7 +1406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1439,23 +1449,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +1494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1513,7 +1523,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1552,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1571,7 +1581,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1600,7 +1610,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1629,12 +1639,12 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1662,7 +1672,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1686,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1690,7 +1700,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1714,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1718,7 +1728,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1729,7 +1739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1772,19 +1782,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1813,197 +1823,197 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>AVERAGE('Pairwise-.1T'!B2,'Pairwise-.2T'!B2,'Pairwise-.3T'!B2,'Pairwise-.4T'!B2)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <f>AVERAGE('Pairwise-.1T'!C2,'Pairwise-.2T'!C2,'Pairwise-.3T'!C2,'Pairwise-.4T'!C2)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>AVERAGE('Pairwise-.1T'!D2,'Pairwise-.2T'!D2,'Pairwise-.3T'!D2,'Pairwise-.4T'!D2)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>AVERAGE('Pairwise-.1T'!E2,'Pairwise-.2T'!E2,'Pairwise-.3T'!E2,'Pairwise-.4T'!E2)</f>
         <v>0.78749999999999987</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <f>AVERAGE('Pairwise-.1T'!F2,'Pairwise-.2T'!F2,'Pairwise-.3T'!F2,'Pairwise-.4T'!F2)</f>
         <v>0.64000000000000012</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f>AVERAGE('Pairwise-.1T'!G2,'Pairwise-.2T'!G2,'Pairwise-.3T'!G2,'Pairwise-.4T'!G2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <f>AVERAGE('Pairwise-.1T'!H2,'Pairwise-.2T'!H2,'Pairwise-.3T'!H2,'Pairwise-.4T'!H2)</f>
         <v>0.72</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <f>AVERAGE('Pairwise-.1T'!I2,'Pairwise-.2T'!I2,'Pairwise-.3T'!I2,'Pairwise-.4T'!I2)</f>
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>AVERAGE('Pairwise-.1T'!B3,'Pairwise-.2T'!B3,'Pairwise-.3T'!B3,'Pairwise-.4T'!B3)</f>
         <v>0.96250000000000002</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f>AVERAGE('Pairwise-.1T'!C3,'Pairwise-.2T'!C3,'Pairwise-.3T'!C3,'Pairwise-.4T'!C3)</f>
         <v>0.96000000000000008</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>AVERAGE('Pairwise-.1T'!D3,'Pairwise-.2T'!D3,'Pairwise-.3T'!D3,'Pairwise-.4T'!D3)</f>
         <v>0.875</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>AVERAGE('Pairwise-.1T'!E3,'Pairwise-.2T'!E3,'Pairwise-.3T'!E3,'Pairwise-.4T'!E3)</f>
         <v>0.66749999999999998</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <f>AVERAGE('Pairwise-.1T'!F3,'Pairwise-.2T'!F3,'Pairwise-.3T'!F3,'Pairwise-.4T'!F3)</f>
         <v>0.34</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f>AVERAGE('Pairwise-.1T'!G3,'Pairwise-.2T'!G3,'Pairwise-.3T'!G3,'Pairwise-.4T'!G3)</f>
         <v>0.99249999999999994</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f>AVERAGE('Pairwise-.1T'!H3,'Pairwise-.2T'!H3,'Pairwise-.3T'!H3,'Pairwise-.4T'!H3)</f>
         <v>0.51500000000000001</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f>AVERAGE('Pairwise-.1T'!I3,'Pairwise-.2T'!I3,'Pairwise-.3T'!I3,'Pairwise-.4T'!I3)</f>
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>AVERAGE('Pairwise-.1T'!B4,'Pairwise-.2T'!B4,'Pairwise-.3T'!B4,'Pairwise-.4T'!B4)</f>
         <v>0.97</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>AVERAGE('Pairwise-.1T'!C4,'Pairwise-.2T'!C4,'Pairwise-.3T'!C4,'Pairwise-.4T'!C4)</f>
         <v>0.97</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>AVERAGE('Pairwise-.1T'!D4,'Pairwise-.2T'!D4,'Pairwise-.3T'!D4,'Pairwise-.4T'!D4)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>AVERAGE('Pairwise-.1T'!E4,'Pairwise-.2T'!E4,'Pairwise-.3T'!E4,'Pairwise-.4T'!E4)</f>
         <v>0.78749999999999998</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>AVERAGE('Pairwise-.1T'!F4,'Pairwise-.2T'!F4,'Pairwise-.3T'!F4,'Pairwise-.4T'!F4)</f>
         <v>0.67999999999999994</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f>AVERAGE('Pairwise-.1T'!G4,'Pairwise-.2T'!G4,'Pairwise-.3T'!G4,'Pairwise-.4T'!G4)</f>
         <v>0.99</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f>AVERAGE('Pairwise-.1T'!H4,'Pairwise-.2T'!H4,'Pairwise-.3T'!H4,'Pairwise-.4T'!H4)</f>
         <v>0.84</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f>AVERAGE('Pairwise-.1T'!I4,'Pairwise-.2T'!I4,'Pairwise-.3T'!I4,'Pairwise-.4T'!I4)</f>
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>AVERAGE('Pairwise-.1T'!B5,'Pairwise-.2T'!B5,'Pairwise-.3T'!B5,'Pairwise-.4T'!B5)</f>
         <v>0.8125</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f>AVERAGE('Pairwise-.1T'!C5,'Pairwise-.2T'!C5,'Pairwise-.3T'!C5,'Pairwise-.4T'!C5)</f>
         <v>0.78500000000000003</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f>AVERAGE('Pairwise-.1T'!D5,'Pairwise-.2T'!D5,'Pairwise-.3T'!D5,'Pairwise-.4T'!D5)</f>
         <v>0.66249999999999998</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f>AVERAGE('Pairwise-.1T'!E5,'Pairwise-.2T'!E5,'Pairwise-.3T'!E5,'Pairwise-.4T'!E5)</f>
         <v>0.49750000000000005</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f>AVERAGE('Pairwise-.1T'!F5,'Pairwise-.2T'!F5,'Pairwise-.3T'!F5,'Pairwise-.4T'!F5)</f>
         <v>0.3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f>AVERAGE('Pairwise-.1T'!G5,'Pairwise-.2T'!G5,'Pairwise-.3T'!G5,'Pairwise-.4T'!G5)</f>
         <v>0.99249999999999994</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f>AVERAGE('Pairwise-.1T'!H5,'Pairwise-.2T'!H5,'Pairwise-.3T'!H5,'Pairwise-.4T'!H5)</f>
         <v>0.5</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f>AVERAGE('Pairwise-.1T'!I5,'Pairwise-.2T'!I5,'Pairwise-.3T'!I5,'Pairwise-.4T'!I5)</f>
         <v>0.76249999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f>AVERAGE('Pairwise-.1T'!B6,'Pairwise-.2T'!B6,'Pairwise-.3T'!B6,'Pairwise-.4T'!B6)</f>
         <v>0.96250000000000002</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f>AVERAGE('Pairwise-.1T'!C6,'Pairwise-.2T'!C6,'Pairwise-.3T'!C6,'Pairwise-.4T'!C6)</f>
         <v>0.95499999999999996</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f>AVERAGE('Pairwise-.1T'!D6,'Pairwise-.2T'!D6,'Pairwise-.3T'!D6,'Pairwise-.4T'!D6)</f>
         <v>0.91249999999999998</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f>AVERAGE('Pairwise-.1T'!E6,'Pairwise-.2T'!E6,'Pairwise-.3T'!E6,'Pairwise-.4T'!E6)</f>
         <v>0.745</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f>AVERAGE('Pairwise-.1T'!F6,'Pairwise-.2T'!F6,'Pairwise-.3T'!F6,'Pairwise-.4T'!F6)</f>
         <v>0.56749999999999989</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f>AVERAGE('Pairwise-.1T'!G6,'Pairwise-.2T'!G6,'Pairwise-.3T'!G6,'Pairwise-.4T'!G6)</f>
         <v>0.99249999999999994</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f>AVERAGE('Pairwise-.1T'!H6,'Pairwise-.2T'!H6,'Pairwise-.3T'!H6,'Pairwise-.4T'!H6)</f>
         <v>0.495</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <f>AVERAGE('Pairwise-.1T'!I6,'Pairwise-.2T'!I6,'Pairwise-.3T'!I6,'Pairwise-.4T'!I6)</f>
         <v>0.76249999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +2027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2031,7 +2041,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2045,7 +2055,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +2069,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2073,7 +2083,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2087,7 +2097,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -2105,33 +2115,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEEBD91-DD34-4738-8989-2F45F2A47BA1}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" t="s">
         <v>25</v>
       </c>
@@ -2139,7 +2149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2168,53 +2178,890 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.97931968031967997</v>
+        <v>0.98547779997780005</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>0.93769144364407497</v>
+      </c>
+      <c r="E3">
+        <v>0.58839556269996396</v>
+      </c>
+      <c r="F3">
+        <v>0.95583333333333298</v>
+      </c>
+      <c r="G3">
+        <v>0.72375870205998505</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.96591128316128305</v>
+      </c>
+      <c r="C4">
+        <v>0.9</v>
+      </c>
+      <c r="D4">
+        <v>0.92850326988038701</v>
+      </c>
+      <c r="E4">
+        <v>0.56391438993123799</v>
+      </c>
+      <c r="F4">
+        <v>0.95583333333333298</v>
+      </c>
+      <c r="G4">
+        <v>0.70466639528592101</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.92582115175845803</v>
+      </c>
+      <c r="C5">
+        <v>0.94583333333333297</v>
+      </c>
+      <c r="D5">
+        <v>0.93091616340487604</v>
+      </c>
+      <c r="E5">
+        <v>0.57913802846472895</v>
+      </c>
+      <c r="F5">
+        <v>0.98583333333333301</v>
+      </c>
+      <c r="G5">
+        <v>0.71730875155794205</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.45064478026957799</v>
+      </c>
+      <c r="C6">
+        <v>0.755</v>
+      </c>
+      <c r="D6">
+        <v>0.54913246404000704</v>
+      </c>
+      <c r="E6">
+        <v>0.170259098118831</v>
+      </c>
+      <c r="F6">
+        <v>0.61916666666666698</v>
+      </c>
+      <c r="G6">
+        <v>0.27224200525206999</v>
+      </c>
+      <c r="H6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I6">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.154</v>
+      </c>
+      <c r="C7">
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.24315789473684199</v>
+      </c>
+      <c r="E7">
+        <v>0.178666666666666</v>
+      </c>
+      <c r="F7">
+        <v>0.67</v>
+      </c>
+      <c r="G7">
+        <v>0.28210526315789503</v>
+      </c>
+      <c r="H7">
+        <v>0.64</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.94855199999999995</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.88583299999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.91103699999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.85853400000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.9375</v>
+      </c>
+      <c r="G13">
+        <v>0.89032599999999995</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D150FD8-F23F-4196-A856-595C071A8265}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.98442632367632399</v>
+      </c>
+      <c r="C3">
+        <v>0.90166666666666695</v>
+      </c>
+      <c r="D3">
+        <v>0.938268232454045</v>
+      </c>
+      <c r="E3">
+        <v>0.68803174177903303</v>
+      </c>
+      <c r="F3">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.79612887701955803</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.96612795537795504</v>
+      </c>
+      <c r="C4">
+        <v>0.90166666666666695</v>
+      </c>
+      <c r="D4">
+        <v>0.92966149426469802</v>
+      </c>
+      <c r="E4">
+        <v>0.56391438993123799</v>
+      </c>
+      <c r="F4">
+        <v>0.95583333333333298</v>
+      </c>
+      <c r="G4">
+        <v>0.70466639528592101</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.92582115175845803</v>
+      </c>
+      <c r="C5">
+        <v>0.94583333333333297</v>
+      </c>
+      <c r="D5">
+        <v>0.93091616340487604</v>
+      </c>
+      <c r="E5">
+        <v>0.46890895350466399</v>
+      </c>
+      <c r="F5">
+        <v>0.94333333333333302</v>
+      </c>
+      <c r="G5">
+        <v>0.61447976804024895</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.48842819973333101</v>
+      </c>
+      <c r="C6">
+        <v>0.625</v>
+      </c>
+      <c r="D6">
+        <v>0.53448341974390301</v>
+      </c>
+      <c r="E6">
+        <v>0.133038881957009</v>
+      </c>
+      <c r="F6">
+        <v>0.44333333333333302</v>
+      </c>
+      <c r="G6">
+        <v>0.20422240362987301</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.14888888888888899</v>
+      </c>
+      <c r="C7">
+        <v>0.55833333333333302</v>
+      </c>
+      <c r="D7">
+        <v>0.23508771929824601</v>
+      </c>
+      <c r="E7">
+        <v>0.16911111111111099</v>
+      </c>
+      <c r="F7">
+        <v>0.63416666666666699</v>
+      </c>
+      <c r="G7">
+        <v>0.26701754385964899</v>
+      </c>
+      <c r="H7">
+        <v>0.68</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.94855199999999995</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.88583299999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.91103699999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.85853400000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.9375</v>
+      </c>
+      <c r="G13">
+        <v>0.89032599999999995</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DC9070-5CC5-4ABD-AB52-08C8C92530E5}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.98583133533133505</v>
+      </c>
+      <c r="C3">
+        <v>0.90166666666666695</v>
+      </c>
+      <c r="D3">
+        <v>0.93866434031262402</v>
+      </c>
+      <c r="E3">
+        <v>0.64983461384265595</v>
+      </c>
+      <c r="F3">
+        <v>0.95583333333333298</v>
+      </c>
+      <c r="G3">
+        <v>0.76797297584311697</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.96463886113886099</v>
+      </c>
+      <c r="C4">
+        <v>0.90166666666666695</v>
+      </c>
+      <c r="D4">
+        <v>0.92911391034594704</v>
+      </c>
+      <c r="E4">
+        <v>0.57097913466475103</v>
+      </c>
+      <c r="F4">
+        <v>0.95583333333333298</v>
+      </c>
+      <c r="G4">
+        <v>0.709054991572169</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.92582115175845803</v>
+      </c>
+      <c r="C5">
+        <v>0.94583333333333297</v>
+      </c>
+      <c r="D5">
+        <v>0.93091616340487604</v>
+      </c>
+      <c r="E5">
+        <v>0.24607274366536</v>
+      </c>
+      <c r="F5">
+        <v>0.65666666666666695</v>
+      </c>
+      <c r="G5">
+        <v>0.36775740085707598</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.64243570689865603</v>
+      </c>
+      <c r="C6">
+        <v>0.69666666666666699</v>
+      </c>
+      <c r="D6">
+        <v>0.65581528367292297</v>
+      </c>
+      <c r="E6">
+        <v>0.21434077170604801</v>
+      </c>
+      <c r="F6">
+        <v>0.56916666666666704</v>
+      </c>
+      <c r="G6">
+        <v>0.30818955480878801</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.158888888888889</v>
+      </c>
+      <c r="C7">
+        <v>0.59583333333333299</v>
+      </c>
+      <c r="D7">
+        <v>0.25087719298245598</v>
+      </c>
+      <c r="E7">
+        <v>0.147111111111111</v>
+      </c>
+      <c r="F7">
+        <v>0.55166666666666697</v>
+      </c>
+      <c r="G7">
+        <v>0.23462697146907699</v>
+      </c>
+      <c r="H7">
+        <v>0.64</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.94855199999999995</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.88583299999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.91103699999999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.85853400000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.9375</v>
+      </c>
+      <c r="G13">
+        <v>0.89032599999999995</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.98106210456210496</v>
       </c>
       <c r="C3">
         <v>0.90333333333333399</v>
       </c>
       <c r="D3">
-        <v>0.93638267270486997</v>
+        <v>0.93721600603820299</v>
       </c>
       <c r="E3">
-        <v>0.64634778307572105</v>
+        <v>0.64729401310352597</v>
       </c>
       <c r="F3">
-        <v>0.94416666666666704</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="G3">
-        <v>0.75879802887146097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.75920796133609403</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.96238661338661402</v>
+        <v>0.955254245754246</v>
       </c>
       <c r="C4">
-        <v>0.90249999999999997</v>
+        <v>0.90333333333333399</v>
       </c>
       <c r="D4">
-        <v>0.92828495234742403</v>
+        <v>0.92530035868022198</v>
       </c>
       <c r="E4">
-        <v>0.64426576073839203</v>
+        <v>0.64330554340329205</v>
       </c>
       <c r="F4">
-        <v>0.94583333333333397</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="G4">
-        <v>0.75791523441513498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>0.75703280616284596</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2225,7 +3072,7 @@
         <v>0.94916666666666705</v>
       </c>
       <c r="D5">
-        <v>0.89189362175213305</v>
+        <v>0.89189362175213405</v>
       </c>
       <c r="E5">
         <v>9.1307613401762702E-2</v>
@@ -2236,8 +3083,14 @@
       <c r="G5">
         <v>0.15044994002018899</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2259,8 +3112,14 @@
       <c r="G6">
         <v>0.48487509563895598</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2282,28 +3141,34 @@
       <c r="G7">
         <v>0.26771929824561402</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>0.67</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2329,12 +3194,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>

--- a/data/multipleSimData/res.xlsx
+++ b/data/multipleSimData/res.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEDDA8B-D4D8-40CB-9082-63BD91B132B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2952" windowWidth="20676" windowHeight="8964" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="2950" windowWidth="20680" windowHeight="8960" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Pairwise-.1T" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Mutiple.T3" sheetId="8" r:id="rId8"/>
     <sheet name="Mutiple.T4" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,23 +449,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -524,7 +523,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -553,7 +552,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -582,7 +581,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -611,7 +610,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -640,12 +639,12 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -659,7 +658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -673,7 +672,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -687,7 +686,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -701,7 +700,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -715,7 +714,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -729,7 +728,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -740,7 +739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -783,23 +782,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -857,7 +856,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -886,7 +885,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -915,7 +914,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -944,7 +943,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -973,12 +972,12 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -992,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1034,7 +1033,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1061,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1073,7 +1072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1116,23 +1115,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1189,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1306,12 +1305,12 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1339,7 +1338,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1395,7 +1394,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1449,23 +1448,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1552,7 +1551,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1639,12 +1638,12 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1700,7 +1699,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1739,7 +1738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1782,19 +1781,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1860,7 +1859,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +1896,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1971,7 +1970,7 @@
         <v>0.76249999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2008,12 +2007,12 @@
         <v>0.76249999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2055,7 +2054,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -2115,23 +2114,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEEBD91-DD34-4738-8989-2F45F2A47BA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2236,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2265,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2323,27 +2322,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2369,12 +2368,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2390,23 +2389,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D150FD8-F23F-4196-A856-595C071A8265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="103" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2598,27 +2597,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2644,12 +2643,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2665,23 +2664,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DC9070-5CC5-4ABD-AB52-08C8C92530E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="103" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
@@ -2699,7 +2698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2757,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2873,27 +2872,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2919,12 +2918,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2940,23 +2939,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3003,7 +3002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3061,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3090,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3148,27 +3147,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3194,12 +3193,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>

--- a/data/multipleSimData/res.xlsx
+++ b/data/multipleSimData/res.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2950" windowWidth="20680" windowHeight="8960" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="1620" yWindow="2950" windowWidth="20680" windowHeight="8960" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Pairwise-.1T" sheetId="4" r:id="rId1"/>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,13 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,12 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1785,7 +1793,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2118,7 +2126,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2131,16 +2139,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" t="s">
         <v>25</v>
       </c>
@@ -2326,15 +2334,69 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="1">
+        <v>0.92848600000000003</v>
+      </c>
+      <c r="C8">
+        <v>0.88583299999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.90098199999999995</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.83634600000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.87802000000000002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.22580600000000001</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.183673</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.29508200000000001</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -2392,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2406,16 +2468,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" t="s">
         <v>25</v>
       </c>
@@ -2681,16 +2743,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" t="s">
         <v>25</v>
       </c>
@@ -2956,16 +3018,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" t="s">
         <v>25</v>
       </c>

--- a/data/multipleSimData/res.xlsx
+++ b/data/multipleSimData/res.xlsx
@@ -16,6 +16,8 @@
     <sheet name="Mutiple.T2" sheetId="9" r:id="rId7"/>
     <sheet name="Mutiple.T3" sheetId="8" r:id="rId8"/>
     <sheet name="Mutiple.T4" sheetId="3" r:id="rId9"/>
+    <sheet name="FISH" sheetId="11" r:id="rId10"/>
+    <sheet name="Baboon" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="30">
   <si>
     <t>case</t>
   </si>
@@ -121,6 +123,9 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>F</t>
+  </si>
 </sst>
 </file>
 
@@ -142,7 +147,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,10 +178,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +465,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,6 +789,38 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1793,7 +1829,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2126,7 +2162,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2139,16 +2175,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" t="s">
         <v>25</v>
       </c>
@@ -2363,14 +2399,17 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.58333299999999999</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.22580600000000001</v>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9">
+        <v>0.23174700000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.86083299999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.36515999999999998</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -2383,14 +2422,17 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.183673</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.29508200000000001</v>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10">
+        <v>0.248775</v>
+      </c>
+      <c r="F10">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.37597900000000001</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2468,16 +2510,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" t="s">
         <v>25</v>
       </c>
@@ -2730,7 +2772,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2743,16 +2785,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" t="s">
         <v>25</v>
       </c>
@@ -3018,16 +3060,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" t="s">
         <v>25</v>
       </c>
